--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\TripGain-main\TripGain-main\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tripgain-my.sharepoint.com/personal/snehalatha_tripgain_com/Documents/Documents/buses_hotels_scripts/Automation/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8DA9A4-5E17-4C41-AF3E-6720CED32BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="13_ncr:1_{8E8DA9A4-5E17-4C41-AF3E-6720CED32BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEE05F48-2922-446B-BCE4-492EDACCB2F3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="25" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_01" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,40 @@
     <sheet name="TCH_04" sheetId="12" r:id="rId20"/>
     <sheet name="TCRT_03" sheetId="8" r:id="rId21"/>
     <sheet name="TCRT_04" sheetId="9" r:id="rId22"/>
+    <sheet name="TCT_02" sheetId="27" r:id="rId23"/>
+    <sheet name="TCH_05" sheetId="23" r:id="rId24"/>
+    <sheet name="TCT_01" sheetId="26" r:id="rId25"/>
+    <sheet name="TCT_11" sheetId="35" r:id="rId26"/>
+    <sheet name="TCT_12" sheetId="36" r:id="rId27"/>
+    <sheet name="TCT_04" sheetId="28" r:id="rId28"/>
+    <sheet name="TCT_05" sheetId="29" r:id="rId29"/>
+    <sheet name="TCT_06" sheetId="30" r:id="rId30"/>
+    <sheet name="TCT_07" sheetId="31" r:id="rId31"/>
+    <sheet name="TCT_08" sheetId="32" r:id="rId32"/>
+    <sheet name="TCT_09" sheetId="33" r:id="rId33"/>
+    <sheet name="TCT_10" sheetId="34" r:id="rId34"/>
+    <sheet name="TCH_06" sheetId="24" r:id="rId35"/>
+    <sheet name="TCT_03" sheetId="25" r:id="rId36"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="103">
   <si>
     <t>Origin</t>
   </si>
@@ -257,13 +284,106 @@
   </si>
   <si>
     <t>mysore</t>
+  </si>
+  <si>
+    <t>Trains</t>
+  </si>
+  <si>
+    <t>NDLS</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>BZA</t>
+  </si>
+  <si>
+    <t>PNBE</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>VSKP</t>
+  </si>
+  <si>
+    <t>HYB</t>
+  </si>
+  <si>
+    <t>MMCT</t>
+  </si>
+  <si>
+    <t>BCT</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>BALU</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>KGP</t>
+  </si>
+  <si>
+    <t>HWH</t>
+  </si>
+  <si>
+    <t>PURI</t>
+  </si>
+  <si>
+    <t>BBS</t>
+  </si>
+  <si>
+    <t>CLX</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>BSL</t>
+  </si>
+  <si>
+    <t>KGL</t>
+  </si>
+  <si>
+    <t>YPR</t>
+  </si>
+  <si>
+    <t>OGL</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>BPP</t>
+  </si>
+  <si>
+    <t>SKM</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>TPTY</t>
+  </si>
+  <si>
+    <t>RNC</t>
+  </si>
+  <si>
+    <t>KGI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,6 +416,21 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -314,10 +449,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -328,8 +464,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,6 +482,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BDE18F-7C5B-4C69-91BD-3C1D4E5EA423}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C281843B-C90A-4F88-9008-C30E0995AC2D}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -2777,7 +2920,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2966,8 +3109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F78A355-BC2F-41AE-9E92-BBEFC08BF195}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3177,6 +3320,1175 @@
       </c>
       <c r="L5" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595DAA7F-0ED3-4FC5-BFB4-8742FAE3A9AF}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCF8576-0D60-465B-B5A5-28C6B148B3E3}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17B4E82-764D-47FB-8635-0E487FACAD77}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="8" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8D7D11-E068-491A-92E7-F47C05B2F2F5}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.90625" customWidth="1"/>
+    <col min="3" max="3" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="str">
+        <f>C2</f>
+        <v>@AM@TGA1$29TN</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{542662AC-31E0-40EB-A2FA-8FD68EE66FEB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06310B1F-81CC-47A1-9EC5-88B4998CFD63}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432A34C3-DD6E-4F8D-9B80-7E84EEEAFBFF}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CBDA1-32CD-4A3D-9DB1-8AC61DFD531A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3370,6 +4682,684 @@
         <v>11</v>
       </c>
       <c r="K5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1601D5EC-460A-4D23-AC7D-664B813EF0F3}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F297F284-0970-4CA2-9B74-9585C44BC044}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94371C2-53BE-4D30-8ED6-EA7B1D4E8C47}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3678615E-80A3-4347-91AB-717253B20B13}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC27BEA-7C51-4DCA-B13B-3D42C654C45A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29280C71-6A5F-44B2-8CB4-1FA16C28DBE7}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E9C58A-DAC5-46C0-9A80-B709060117CD}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
